--- a/check_t/bankruptcy_raw.xlsx
+++ b/check_t/bankruptcy_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmitm/GitHub/bankruptcy-demand/pythonGE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwellman/Documents/SIEPR/GitHub/macrodata-wellman/check_t/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9E656F-8A84-A04C-A3A1-044230122FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25F4F2-0448-184C-B021-1299F8327BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="860" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{872FBB35-46AE-1145-9CA6-E8BD668AE6ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{872FBB35-46AE-1145-9CA6-E8BD668AE6ED}"/>
   </bookViews>
   <sheets>
     <sheet name="quarterly" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -153,7 +153,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE0282F-9859-BD47-A6E0-DD8C2A038EA7}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4033,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C09B5F-7D23-7F4D-AB8C-7F22CD1A6E29}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A2" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4051,457 +4051,265 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>1961</v>
+        <v>1985</v>
       </c>
       <c r="B2" s="6">
-        <v>147212</v>
+        <v>421196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>1962</v>
+        <v>1986</v>
       </c>
       <c r="B3" s="6">
-        <v>151637</v>
+        <v>519567</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>1963</v>
+        <v>1987</v>
       </c>
       <c r="B4" s="6">
-        <v>163606</v>
+        <v>577923</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>1964</v>
+        <v>1988</v>
       </c>
       <c r="B5" s="6">
-        <v>176021</v>
+        <v>618780</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>1965</v>
+        <v>1989</v>
       </c>
       <c r="B6" s="6">
-        <v>186339</v>
+        <v>684239</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>1966</v>
+        <v>1990</v>
       </c>
       <c r="B7" s="6">
-        <v>200342</v>
+        <v>782960</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>1967</v>
+        <v>1991</v>
       </c>
       <c r="B8" s="6">
-        <v>203070</v>
+        <v>943987</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>1968</v>
+        <v>1992</v>
       </c>
       <c r="B9" s="6">
-        <v>191371</v>
+        <v>971517</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>1969</v>
+        <v>1993</v>
       </c>
       <c r="B10" s="6">
-        <v>189665</v>
+        <v>875202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>1970</v>
+        <v>1994</v>
       </c>
       <c r="B11" s="6">
-        <v>197876</v>
+        <v>832829</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>1971</v>
+        <v>1995</v>
       </c>
       <c r="B12" s="6">
-        <v>192111</v>
+        <v>926601</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>1972</v>
+        <v>1996</v>
       </c>
       <c r="B13" s="6">
-        <v>178033</v>
+        <v>1178555</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>1973</v>
+        <v>1997</v>
       </c>
       <c r="B14" s="6">
-        <v>181355</v>
+        <v>1404145</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>1974</v>
+        <v>1998</v>
       </c>
       <c r="B15" s="6">
-        <v>221999</v>
+        <v>1442549</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>1975</v>
+        <v>1999</v>
       </c>
       <c r="B16" s="6">
-        <v>250517</v>
+        <v>1319465</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>1976</v>
+        <v>2000</v>
       </c>
       <c r="B17" s="6">
-        <v>230474</v>
+        <v>1253444</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>1977</v>
+        <v>2001</v>
       </c>
       <c r="B18" s="6">
-        <v>208675</v>
+        <v>1492129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>1978</v>
+        <v>2002</v>
       </c>
       <c r="B19" s="6">
-        <v>214714</v>
+        <v>1577651</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>1979</v>
+        <v>2003</v>
       </c>
       <c r="B20" s="6">
-        <v>218418</v>
+        <v>1660245</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>1980</v>
+        <v>2004</v>
       </c>
       <c r="B21" s="6">
-        <v>285343</v>
+        <v>1597462</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="B22" s="6">
-        <v>364093</v>
+        <v>2078415</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>1982</v>
+        <v>2006</v>
       </c>
       <c r="B23" s="6">
-        <v>371296</v>
+        <v>617660</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>1983</v>
+        <v>2007</v>
       </c>
       <c r="B24" s="6">
-        <v>359555</v>
+        <v>850912</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="B25" s="6">
-        <v>354456</v>
+        <v>1117641</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>1985</v>
+        <v>2009</v>
       </c>
       <c r="B26" s="6">
-        <v>421196</v>
+        <v>1473675</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>1986</v>
+        <v>2010</v>
       </c>
       <c r="B27" s="6">
-        <v>519567</v>
+        <v>1593097</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>1987</v>
+        <v>2011</v>
       </c>
       <c r="B28" s="6">
-        <v>577923</v>
+        <v>1410653</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>1988</v>
-      </c>
-      <c r="B29" s="6">
-        <v>618780</v>
+        <v>2012</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1221091</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>1989</v>
-      </c>
-      <c r="B30" s="6">
-        <v>684239</v>
+        <v>2013</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1071932</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>1990</v>
-      </c>
-      <c r="B31" s="6">
-        <v>782960</v>
+        <v>2014</v>
+      </c>
+      <c r="B31" s="7">
+        <v>936795</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>1991</v>
-      </c>
-      <c r="B32" s="6">
-        <v>943987</v>
+        <v>2015</v>
+      </c>
+      <c r="B32" s="7">
+        <v>844495</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>1992</v>
-      </c>
-      <c r="B33" s="6">
-        <v>971517</v>
+        <v>2016</v>
+      </c>
+      <c r="B33" s="7">
+        <v>794960</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>1993</v>
-      </c>
-      <c r="B34" s="6">
-        <v>875202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>1994</v>
-      </c>
-      <c r="B35" s="6">
-        <v>832829</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>1995</v>
-      </c>
-      <c r="B36" s="6">
-        <v>926601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>1996</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1178555</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>1997</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1404145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>1998</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1442549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>1999</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1319465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1253444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1492129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B43" s="6">
-        <v>1577651</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1660245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>2004</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1597462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B46" s="6">
-        <v>2078415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B47" s="6">
-        <v>617660</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B48" s="6">
-        <v>850912</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1117641</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>2009</v>
-      </c>
-      <c r="B50" s="6">
-        <v>1473675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1593097</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B52" s="6">
-        <v>1410653</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1221091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B54" s="7">
-        <v>1071932</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B55" s="7">
-        <v>936795</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B56" s="7">
-        <v>844495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B57" s="7">
-        <v>794960</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
         <v>2017</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B34" s="7">
         <v>789020</v>
       </c>
     </row>
@@ -4991,7 +4799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A0242B-2E2A-6A4B-B68C-CD1D52B84DA9}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
